--- a/shopeedfood_upgrade_db/data.xlsx
+++ b/shopeedfood_upgrade_db/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopeefood_v2\Shopeefood_Upgrade_Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopeefood_upgrade\shopeedfood_upgrade_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7797CF-2C3B-475D-8E0F-DE766B0D3FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90BE065-88A6-495A-976D-934D9F139517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" activeTab="1" xr2:uid="{92ED579A-DE70-4CC6-A2CC-7AB2C5690E2D}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="23028" windowHeight="12360" tabRatio="682" activeTab="8" xr2:uid="{92ED579A-DE70-4CC6-A2CC-7AB2C5690E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Menu Đà Nẵng" sheetId="8" r:id="rId6"/>
     <sheet name="Menu HN" sheetId="6" r:id="rId7"/>
     <sheet name="Menu HCM" sheetId="7" r:id="rId8"/>
+    <sheet name="DS Nhân viên" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2391" uniqueCount="1167">
   <si>
     <t>Nha Trang</t>
   </si>
@@ -5468,12 +5469,300 @@
   </si>
   <si>
     <t>10. Bánh Ngọt Bảo Ngọc - 18 Nguyễn Thị Minh Khai</t>
+  </si>
+  <si>
+    <t>Nguyen</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>an.nguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>Binh</t>
+  </si>
+  <si>
+    <t>binh.tran@example.com</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Thi Hoa</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>hoa.le@sample.net</t>
+  </si>
+  <si>
+    <t>Da Nang</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Van Duc</t>
+  </si>
+  <si>
+    <t>duc.pham@domain.org</t>
+  </si>
+  <si>
+    <t>Can Tho</t>
+  </si>
+  <si>
+    <t>Hoang</t>
+  </si>
+  <si>
+    <t>Thu Thuy</t>
+  </si>
+  <si>
+    <t>thuy.hoang@mail.co</t>
+  </si>
+  <si>
+    <t>Hai Phong</t>
+  </si>
+  <si>
+    <t>Xuan Hung</t>
+  </si>
+  <si>
+    <t>xuan.nguyen@email.net</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Do</t>
+  </si>
+  <si>
+    <t>Thi Mai</t>
+  </si>
+  <si>
+    <t>mai.do@mymail.com</t>
+  </si>
+  <si>
+    <t>Bui</t>
+  </si>
+  <si>
+    <t>Anh Tuan</t>
+  </si>
+  <si>
+    <t>tuan.bui@anothermail.net</t>
+  </si>
+  <si>
+    <t>Bien Hoa</t>
+  </si>
+  <si>
+    <t>Vo</t>
+  </si>
+  <si>
+    <t>Thanh Nga</t>
+  </si>
+  <si>
+    <t>nga.vo@freemail.com</t>
+  </si>
+  <si>
+    <t>Vinh</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>Cong Minh</t>
+  </si>
+  <si>
+    <t>minh.truong@inbox.com</t>
+  </si>
+  <si>
+    <t>Quang Ninh</t>
+  </si>
+  <si>
+    <t>Van A</t>
+  </si>
+  <si>
+    <t>van.le@test.com</t>
+  </si>
+  <si>
+    <t>An Giang</t>
+  </si>
+  <si>
+    <t>Thi B</t>
+  </si>
+  <si>
+    <t>thi.nguyen@demo.com</t>
+  </si>
+  <si>
+    <t>Ba Ria - Vung Tau</t>
+  </si>
+  <si>
+    <t>Van C</t>
+  </si>
+  <si>
+    <t>van.tran@domain.com</t>
+  </si>
+  <si>
+    <t>Bac Giang</t>
+  </si>
+  <si>
+    <t>Thi D</t>
+  </si>
+  <si>
+    <t>thi.pham@mail.com</t>
+  </si>
+  <si>
+    <t>Bac Kan</t>
+  </si>
+  <si>
+    <t>Van E</t>
+  </si>
+  <si>
+    <t>van.hoang@example.com</t>
+  </si>
+  <si>
+    <t>Binh Dinh</t>
+  </si>
+  <si>
+    <t>Van F</t>
+  </si>
+  <si>
+    <t>van.do@test.com</t>
+  </si>
+  <si>
+    <t>Da Lat</t>
+  </si>
+  <si>
+    <t>Thi G</t>
+  </si>
+  <si>
+    <t>thi.le@demo.com</t>
+  </si>
+  <si>
+    <t>Vung Tau</t>
+  </si>
+  <si>
+    <t>Van H</t>
+  </si>
+  <si>
+    <t>van.pham@domain.com</t>
+  </si>
+  <si>
+    <t>Ha Long</t>
+  </si>
+  <si>
+    <t>Thi I</t>
+  </si>
+  <si>
+    <t>thi.hoang@mail.com</t>
+  </si>
+  <si>
+    <t>Sa Pa</t>
+  </si>
+  <si>
+    <t>Van K</t>
+  </si>
+  <si>
+    <t>van.nguyen@example.com</t>
+  </si>
+  <si>
+    <t>Ninh Binh</t>
+  </si>
+  <si>
+    <t>Thi L</t>
+  </si>
+  <si>
+    <t>thi.tran@test.com</t>
+  </si>
+  <si>
+    <t>Phu Quoc</t>
+  </si>
+  <si>
+    <t>Van M</t>
+  </si>
+  <si>
+    <t>van.le@demo.com</t>
+  </si>
+  <si>
+    <t>Hoi An</t>
+  </si>
+  <si>
+    <t>Thi N</t>
+  </si>
+  <si>
+    <t>thi.pham@domain.com</t>
+  </si>
+  <si>
+    <t>Mui Ne</t>
+  </si>
+  <si>
+    <t>Van O</t>
+  </si>
+  <si>
+    <t>van.hoang@mail.com</t>
+  </si>
+  <si>
+    <t>Ha Giang</t>
+  </si>
+  <si>
+    <t>Thi P</t>
+  </si>
+  <si>
+    <t>thi.nguyen@example.com</t>
+  </si>
+  <si>
+    <t>Con Dao</t>
+  </si>
+  <si>
+    <t>Van Q</t>
+  </si>
+  <si>
+    <t>van.tran@test.com</t>
+  </si>
+  <si>
+    <t>Cat Ba</t>
+  </si>
+  <si>
+    <t>Thi R</t>
+  </si>
+  <si>
+    <t>Buon Ma Thuot</t>
+  </si>
+  <si>
+    <t>Van S</t>
+  </si>
+  <si>
+    <t>Pleiku</t>
+  </si>
+  <si>
+    <t>Thi T</t>
+  </si>
+  <si>
+    <t>Cao Bang</t>
+  </si>
+  <si>
+    <t>Van U</t>
+  </si>
+  <si>
+    <t>Lao Cai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="&quot;0&quot;#"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5551,7 +5840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5566,14 +5855,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6069,7 +6365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF080138-C5D0-42C4-80CE-DF853883F9FA}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -7770,13 +8066,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
@@ -10542,7 +10838,7 @@
   <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10564,10 +10860,10 @@
       <c r="C1" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>640</v>
       </c>
     </row>
@@ -10758,10 +11054,10 @@
       <c r="C14" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>647</v>
       </c>
     </row>
@@ -10952,10 +11248,10 @@
       <c r="C27" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>653</v>
       </c>
     </row>
@@ -11146,10 +11442,10 @@
       <c r="C40" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>657</v>
       </c>
     </row>
@@ -11340,10 +11636,10 @@
       <c r="C53" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>660</v>
       </c>
     </row>
@@ -11534,10 +11830,10 @@
       <c r="C66" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>663</v>
       </c>
     </row>
@@ -11728,10 +12024,10 @@
       <c r="C79" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="6" t="s">
         <v>664</v>
       </c>
     </row>
@@ -11922,10 +12218,10 @@
       <c r="C92" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="6" t="s">
         <v>665</v>
       </c>
     </row>
@@ -12116,10 +12412,10 @@
       <c r="C105" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>666</v>
       </c>
     </row>
@@ -12310,10 +12606,10 @@
       <c r="C118" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="6" t="s">
         <v>667</v>
       </c>
     </row>
@@ -13097,19 +13393,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>640</v>
       </c>
     </row>
@@ -13291,19 +13587,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>647</v>
       </c>
     </row>
@@ -13485,19 +13781,19 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>653</v>
       </c>
     </row>
@@ -13679,19 +13975,19 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>657</v>
       </c>
     </row>
@@ -13873,19 +14169,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>660</v>
       </c>
     </row>
@@ -14067,19 +14363,19 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>821</v>
       </c>
     </row>
@@ -14261,19 +14557,19 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="6" t="s">
         <v>664</v>
       </c>
     </row>
@@ -14455,19 +14751,19 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="6" t="s">
         <v>822</v>
       </c>
     </row>
@@ -14649,19 +14945,19 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="6" t="s">
         <v>666</v>
       </c>
     </row>
@@ -14843,19 +15139,19 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="6" t="s">
         <v>823</v>
       </c>
     </row>
@@ -15037,10 +15333,10 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="6" t="s">
         <v>847</v>
       </c>
     </row>
@@ -15129,10 +15425,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="6" t="s">
         <v>848</v>
       </c>
     </row>
@@ -15221,10 +15517,10 @@
       </c>
     </row>
     <row r="157" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="6" t="s">
         <v>718</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="6" t="s">
         <v>849</v>
       </c>
     </row>
@@ -15313,10 +15609,10 @@
       </c>
     </row>
     <row r="170" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="6" t="s">
         <v>850</v>
       </c>
     </row>
@@ -15405,10 +15701,10 @@
       </c>
     </row>
     <row r="183" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="6" t="s">
         <v>851</v>
       </c>
     </row>
@@ -15497,7 +15793,7 @@
       </c>
     </row>
     <row r="196" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="6" t="s">
         <v>731</v>
       </c>
     </row>
@@ -15555,7 +15851,7 @@
       </c>
     </row>
     <row r="209" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="6" t="s">
         <v>733</v>
       </c>
     </row>
@@ -15613,7 +15909,7 @@
       </c>
     </row>
     <row r="222" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="6" t="s">
         <v>735</v>
       </c>
     </row>
@@ -15671,7 +15967,7 @@
       </c>
     </row>
     <row r="235" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="6" t="s">
         <v>737</v>
       </c>
     </row>
@@ -15729,7 +16025,7 @@
       </c>
     </row>
     <row r="248" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="6" t="s">
         <v>738</v>
       </c>
     </row>
@@ -15784,6 +16080,809 @@
     <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="3" t="s">
         <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29B0873-0F8F-4DFF-AAD6-F0D1D3450042}">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E1" s="9">
+        <v>36205</v>
+      </c>
+      <c r="F1" s="11">
+        <v>987654321</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2" s="9">
+        <v>35025</v>
+      </c>
+      <c r="F2" s="11">
+        <v>901234567</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E3" s="9">
+        <v>36654</v>
+      </c>
+      <c r="F3" s="11">
+        <v>912345678</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E4" s="9">
+        <v>33864</v>
+      </c>
+      <c r="F4" s="11">
+        <v>978901234</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E5" s="9">
+        <v>35883</v>
+      </c>
+      <c r="F5" s="11">
+        <v>934567890</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E6" s="9">
+        <v>31229</v>
+      </c>
+      <c r="F6" s="11">
+        <v>963258147</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E7" s="9">
+        <v>35779</v>
+      </c>
+      <c r="F7" s="11">
+        <v>947125896</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E8" s="9">
+        <v>32966</v>
+      </c>
+      <c r="F8" s="11">
+        <v>925896347</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E9" s="9">
+        <v>34140</v>
+      </c>
+      <c r="F9" s="11">
+        <v>958741236</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E10" s="9">
+        <v>36902</v>
+      </c>
+      <c r="F10" s="11">
+        <v>999888777</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E11" s="9">
+        <v>29519</v>
+      </c>
+      <c r="F11" s="11">
+        <v>123456789</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E12" s="9">
+        <v>32007</v>
+      </c>
+      <c r="F12" s="11">
+        <v>988776655</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E13" s="9">
+        <v>35133</v>
+      </c>
+      <c r="F13" s="11">
+        <v>977665544</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E14" s="9">
+        <v>33574</v>
+      </c>
+      <c r="F14" s="11">
+        <v>966554433</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E15" s="9">
+        <v>30462</v>
+      </c>
+      <c r="F15" s="11">
+        <v>955443322</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E16" s="9">
+        <v>34556</v>
+      </c>
+      <c r="F16" s="11">
+        <v>944332211</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E17" s="9">
+        <v>35798</v>
+      </c>
+      <c r="F17" s="11">
+        <v>933221100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E18" s="9">
+        <v>32674</v>
+      </c>
+      <c r="F18" s="11">
+        <v>922110099</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E19" s="9">
+        <v>34301</v>
+      </c>
+      <c r="F19" s="11">
+        <v>911009988</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E20" s="9">
+        <v>37351</v>
+      </c>
+      <c r="F20" s="11">
+        <v>900998877</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E21" s="9">
+        <v>35685</v>
+      </c>
+      <c r="F21" s="11">
+        <v>899887766</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E22" s="9">
+        <v>31463</v>
+      </c>
+      <c r="F22" s="11">
+        <v>888776655</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E23" s="9">
+        <v>36714</v>
+      </c>
+      <c r="F23" s="11">
+        <v>877665544</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E24" s="9">
+        <v>34990</v>
+      </c>
+      <c r="F24" s="11">
+        <v>866554433</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E25" s="9">
+        <v>33016</v>
+      </c>
+      <c r="F25" s="11">
+        <v>855443322</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1154</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E26" s="9">
+        <v>31025</v>
+      </c>
+      <c r="F26" s="11">
+        <v>844332211</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E27" s="9">
+        <v>36403</v>
+      </c>
+      <c r="F27" s="11">
+        <v>833221100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E28" s="9">
+        <v>33679</v>
+      </c>
+      <c r="F28" s="11">
+        <v>822110099</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E29" s="9">
+        <v>32420</v>
+      </c>
+      <c r="F29" s="11">
+        <v>811009988</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1136</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E30" s="9">
+        <v>35243</v>
+      </c>
+      <c r="F30" s="11">
+        <v>800998877</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
